--- a/public/uploads/excel/SESI_1_2022_2023.xlsx
+++ b/public/uploads/excel/SESI_1_2022_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CA835A-CE92-4150-8C13-60DA168450ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74F01B6-DEDE-4835-AC7A-2F8D4E1223D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="8364" xr2:uid="{144BB2BC-452F-4C7E-BB2D-AD029A2D5812}"/>
   </bookViews>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>DANIAL SHAFIQ BIN ABD ROFAT</t>
   </si>
@@ -137,6 +137,18 @@
   </si>
   <si>
     <t>010605-02-0039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LIM MIIN YANN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   MUHAMAD HIDAYATULLAH BIN ISHAK</t>
+  </si>
+  <si>
+    <t>  NATASHA NURAZRIN BINTI AZIZAN</t>
+  </si>
+  <si>
+    <t>  010405021088</t>
   </si>
 </sst>
 </file>
@@ -201,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -223,6 +235,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,7 +580,7 @@
   <dimension ref="A1:I304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -655,7 +670,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>17</v>
@@ -689,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>9</v>
@@ -698,13 +713,19 @@
       <c r="H7"/>
       <c r="I7"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="6"/>
-      <c r="F8"/>
-      <c r="H8"/>
-      <c r="I8"/>
+    <row r="8" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
